--- a/experiment result cnn/256_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/256_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008322431252186249</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05870607956659898</v>
+        <v>0.0006420479577876656</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001800699881473271</v>
+        <v>0.006116087731602871</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007808748993458785</v>
+        <v>0.001872368569427527</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003736711682023153</v>
+        <v>0.0002201019949393989</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009824413724735867</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003770781856787297</v>
+        <v>0.0004808999921847766</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0007013205239300606</v>
+        <v>0.00146980902605961</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01553266847524704</v>
+        <v>0.02286116467791296</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006972087261000003</v>
+        <v>0.0002200859999646467</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0113727652781714</v>
+        <v>0.0003605799966477418</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0003602919507764264</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008036838909510322</v>
+        <v>0.002529293215632092</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00220876492609635</v>
+        <v>0.001627249592777395</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001609890882255087</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01258400815082497</v>
+        <v>0.0004605379973681973</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03957748022498204</v>
+        <v>0.01791205419654562</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01024463864775514</v>
+        <v>0.0001000259999961178</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009202011972213962</v>
+        <v>0.02240795989323488</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0006006595259244998</v>
+        <v>0.001891878644232293</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01689266968684801</v>
+        <v>0.0002402439994130302</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002641731332334033</v>
+        <v>0.000140053999974895</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03285137177711743</v>
+        <v>0.0003202199997114219</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007942514209641685</v>
+        <v>0.002638451173974602</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001263907633931086</v>
+        <v>0.000280231999588951</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01993555776054209</v>
+        <v>0.001645971821243991</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003973233295990132</v>
+        <v>0.0001200279999960778</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.005458553430397811</v>
+        <v>0.003773918821598234</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05076485029516884</v>
+        <v>0.0006211259887264839</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.000761949816485205</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003070171773690599</v>
+        <v>0.002634548323180239</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005956289207651755</v>
+        <v>0.005622963115081009</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01349353791398568</v>
+        <v>0.002487874059699024</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02602116268862641</v>
+        <v>0.009589062156951085</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003803858925717347</v>
+        <v>0.0008022759521528691</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0005607878433990524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08696374361657698</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006536406889158256</v>
+        <v>0.0003601639999121443</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001791088946324529</v>
+        <v>0.00776864914350765</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02255986550152797</v>
+        <v>0.00776615274668755</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09653122544864999</v>
+        <v>0.0005208719935224465</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06548212778174158</v>
+        <v>0.003251172933324523</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0007618990559881561</v>
+        <v>0.003771074872736609</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04712314933520274</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.001490633549267896</v>
+        <v>0.001203771592490845</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002596273600760654</v>
+        <v>0.00100252396217229</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0107383067689866</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.001648471440161692</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.000641011075680872</v>
+        <v>0.000100049999974975</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0004004039097812879</v>
+        <v>0.0006412199866368392</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007118698928200736</v>
+        <v>0.08698488407609359</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02219012518168517</v>
+        <v>0.02007064934015746</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02729752096816801</v>
+        <v>0.001206507572918308</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003763697143193309</v>
+        <v>0.0009240518344920924</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05874352701739242</v>
+        <v>0.01286211944907092</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003044322341739894</v>
+        <v>0.04281445783819128</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004665526549446491</v>
+        <v>0.007293327236330518</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05895371379508972</v>
+        <v>0.02351814248067796</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615317967344002</v>
+        <v>0.01061877762320738</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005128110707641001</v>
+        <v>0.03055874274448851</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002641012606530385</v>
+        <v>0.001916591206614522</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0002602098965447512</v>
+        <v>0.0143756025994421</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02258761906625018</v>
+        <v>0.0006008679945999693</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004762753095707633</v>
+        <v>0.01219973115064888</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005966621589518588</v>
+        <v>0.06964269341316814</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03867747657188295</v>
+        <v>0.02775948868148847</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02689984609890817</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006716890522748496</v>
+        <v>0.07182317083856296</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004507163697892657</v>
+        <v>0.04651874815845224</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06650661684083836</v>
+        <v>0.008225993227781952</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04093808989192226</v>
+        <v>0.03793921575473123</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02110988679106199</v>
+        <v>0.005350879914660172</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.005176039163693542</v>
+        <v>0.112447410509353</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08686886445852397</v>
+        <v>0.01306998309239062</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.002046892100869825</v>
+        <v>0.09053454519556235</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07219044495589284</v>
+        <v>0.0608231835066285</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.006728099146969944</v>
+        <v>0.009384029554350555</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0008433577232828969</v>
+        <v>0.1386083807862041</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0689099190471288</v>
+        <v>0.06502407766339871</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07575066524961857</v>
+        <v>0.0402338970675809</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01309072637840316</v>
+        <v>0.007204141878876062</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.004489251211884268</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003055028112159591</v>
+        <v>0.01838703558833254</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01482098267809624</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05562232222033607</v>
+        <v>0.09573503999573039</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.003611773851678955</v>
+        <v>0.003608780179914993</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002035444222155554</v>
+        <v>0.0008613739882545336</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0007409492848088543</v>
+        <v>0.01446971838561037</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01008632876308923</v>
+        <v>0.00440524759120299</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02231124728860862</v>
+        <v>0.08686615552146568</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01854056635361808</v>
+        <v>0.01042058330662466</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001887910690585327</v>
+        <v>0.1238568596600096</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.003827418423991261</v>
+        <v>0.004360176721283018</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05438825584224747</v>
+        <v>0.1022087525763679</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06467240719314622</v>
+        <v>0.009857895392406078</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02888958068945725</v>
+        <v>0.003542593510142094</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.004742735373413372</v>
+        <v>0.08293316365562074</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08101377402418966</v>
+        <v>0.0224308769670814</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.04793008766863018</v>
+        <v>0.08127968499054863</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.009400832476468442</v>
+        <v>0.1949437853354696</v>
       </c>
     </row>
   </sheetData>
